--- a/stock.xlsx
+++ b/stock.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbashevoy/Desktop/Полезности/Я.Практикум/seo_hashes/seo_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexeyAporoski\first-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362B42B8-945C-499D-828D-2FC46F0FC3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="storehouse" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -103,6 +104,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -370,19 +374,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100480924</v>
       </c>
@@ -404,7 +408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100480929</v>
       </c>
@@ -415,7 +419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100480938</v>
       </c>
@@ -426,7 +430,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>100480952</v>
       </c>
@@ -437,7 +441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100480959</v>
       </c>
@@ -448,7 +452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100480975</v>
       </c>
@@ -459,7 +463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100480988</v>
       </c>
@@ -470,7 +474,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>100480998</v>
       </c>
@@ -481,7 +485,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100481008</v>
       </c>
@@ -492,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100481020</v>
       </c>
@@ -500,6 +504,72 @@
         <v>3</v>
       </c>
       <c r="C11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>100480959</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>100480975</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>100480988</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>100480998</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>100481008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>100481020</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>19</v>
       </c>
     </row>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexeyAporoski\first-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362B42B8-945C-499D-828D-2FC46F0FC3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C235C7-83EC-40A7-9E4F-B1E7F4E53C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -378,7 +378,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A11" sqref="A11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -496,17 +496,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>100481020</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>100480959</v>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexeyAporoski\first-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C235C7-83EC-40A7-9E4F-B1E7F4E53C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C9DA8E-B26E-432B-84BE-2B76EA8A42AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -496,6 +496,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100481008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>100480959</v>
@@ -559,6 +570,28 @@
         <v>3</v>
       </c>
       <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>100481008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>100481020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
         <v>19</v>
       </c>
     </row>
